--- a/csv/Levels/level1.list.xlsx
+++ b/csv/Levels/level1.list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="round1"/>
@@ -33,16 +33,16 @@
     <t>num</t>
   </si>
   <si>
-    <t>MinRange</t>
+    <t>minRange</t>
   </si>
   <si>
     <t>maxRange</t>
   </si>
   <si>
-    <t>AngleDir</t>
+    <t>angleDir</t>
   </si>
   <si>
-    <t>Angle</t>
+    <t>angle</t>
   </si>
   <si>
     <t>enemyId</t>
@@ -75,7 +75,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -122,10 +122,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,7 +431,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -444,7 +444,7 @@
     <col min="7" max="7" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -501,7 +501,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="3">
         <v>12</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="3">
         <v>14</v>
       </c>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="3">
         <v>16</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="3">
         <v>18</v>
       </c>
@@ -3239,7 +3239,396 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="3">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="3">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="3">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="3">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="3">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="3">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="3">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="3">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="3">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="3">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="3">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3252,7 +3641,6 @@
     <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -3277,7 +3665,6 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
@@ -3301,7 +3688,6 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
@@ -3313,7 +3699,6 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="3">
@@ -3331,7 +3716,6 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="3">
@@ -3349,7 +3733,6 @@
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="3">
@@ -3367,7 +3750,6 @@
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="3">
@@ -3385,14 +3767,13 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3">
@@ -3403,7 +3784,6 @@
       <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="3">
@@ -3421,7 +3801,6 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="3">
@@ -3439,14 +3818,13 @@
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="3">
         <v>14</v>
       </c>
       <c r="B11" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3">
@@ -3455,9 +3833,8 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="3">
@@ -3475,7 +3852,6 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="3">
@@ -3493,14 +3869,13 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="3">
         <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3">
@@ -3511,7 +3886,6 @@
       <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="3">
@@ -3529,7 +3903,6 @@
       <c r="G15" s="3">
         <v>5</v>
       </c>
-      <c r="H15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="3">
@@ -3547,7 +3920,6 @@
       <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="3">
@@ -3565,7 +3937,6 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="3">
@@ -3583,7 +3954,6 @@
       <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="3">
@@ -3601,14 +3971,13 @@
       <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="H19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="3">
         <v>37</v>
       </c>
       <c r="B20" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3">
@@ -3619,419 +3988,6 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3">
-        <v>100</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3">
-        <v>100</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="3">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="3">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="3">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="3">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <v>100</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="3">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="3">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="3">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="3">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3">
-        <v>100</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="3">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="3">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="3">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3">
-        <v>100</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="3">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="3">
@@ -4049,7 +4005,6 @@
       <c r="G21" s="3">
         <v>4</v>
       </c>
-      <c r="H21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="3">
@@ -4067,7 +4022,6 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1"/>
@@ -4077,7 +4031,6 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1"/>
@@ -4087,7 +4040,6 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
